--- a/test-contracts/dataset/groundtruth/groundTruth.xlsx
+++ b/test-contracts/dataset/groundtruth/groundTruth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\Academic\2_RugPull_2023.02\2_Experiment\0_CRPWarner\RugPull_Dataset\RugPull_Events\open_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongkang/Code/LLM-Auditor/test-contracts/dataset/groundtruth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94293B18-F121-4ECB-A388-692A24C78436}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5C1D6-2BB8-7A4E-93D1-E37136F59B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="9789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
-  <si>
-    <t>0x93023F1D3525E273F291B6f76d2F5027A39BF302</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>0x2753dcE37A7eDB052a77832039bcc9aA49Ad8b25</t>
   </si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>0x1e4402Fa427a7A835fC64ea6d051404ce767A569</t>
-  </si>
-  <si>
-    <t>0xcb6CD204D783DC8d66896A6DEf5867d332228D7b</t>
   </si>
   <si>
     <t>0x455dedAcbe41c178953119847F2b95E2d9AD0a1D</t>
@@ -258,13 +252,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -273,7 +267,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -306,7 +300,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,38 +578,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -624,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -635,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -652,35 +646,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -691,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -708,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -722,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -736,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -750,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -761,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -772,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -792,21 +786,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -814,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -828,60 +822,60 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -890,40 +884,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -932,12 +926,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -946,12 +940,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -960,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -974,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -985,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -999,24 +993,24 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1024,13 +1018,13 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1038,18 +1032,18 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1058,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1066,27 +1060,27 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1094,18 +1088,18 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1114,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1122,18 +1116,18 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1142,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1150,18 +1144,18 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1170,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1184,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1198,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1223,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1240,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1251,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1268,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1282,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1296,21 +1290,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1321,24 +1315,24 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1349,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1366,21 +1360,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1394,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1405,15 +1399,15 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1422,12 +1416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1436,21 +1430,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1461,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1472,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1492,21 +1486,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1517,24 +1511,24 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1545,34 +1539,6 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
         <v>1</v>
       </c>
     </row>
